--- a/data/trans_orig/P79A_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P79A_R-Provincia-trans_orig.xlsx
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4713</v>
+        <v>4240</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.002620738923928386</v>
+        <v>0.002620738923928387</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01478029515373255</v>
+        <v>0.01329771844344717</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22909</v>
+        <v>16631</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01089649644727177</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07248261670524236</v>
+        <v>0.05262052586200915</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -783,19 +783,19 @@
         <v>4280</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17091</v>
+        <v>18701</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006740469335591427</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001316115553729977</v>
+        <v>0.001314312128241885</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02691919779275417</v>
+        <v>0.02945548176675701</v>
       </c>
     </row>
     <row r="5">
@@ -812,16 +812,16 @@
         <v>318009</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>314132</v>
+        <v>314605</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>318845</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9973792610760717</v>
+        <v>0.9973792610760718</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9852197048462672</v>
+        <v>0.9867022815565528</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -833,7 +833,7 @@
         <v>312617</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>293152</v>
+        <v>299430</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>316061</v>
@@ -842,7 +842,7 @@
         <v>0.9891035035527282</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9275173832947553</v>
+        <v>0.9473794741379908</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -854,19 +854,19 @@
         <v>630626</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>617815</v>
+        <v>616205</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>634070</v>
+        <v>634072</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9932595306644086</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9730808022072456</v>
+        <v>0.9705445182332429</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.99868388444627</v>
+        <v>0.998685687871758</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>26414</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15608</v>
+        <v>13564</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41923</v>
+        <v>42599</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04977655547398523</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02941294591453147</v>
+        <v>0.02556202112795861</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07900435352450903</v>
+        <v>0.08027825101979033</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -979,19 +979,19 @@
         <v>8808</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4752</v>
+        <v>4182</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15243</v>
+        <v>14875</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01611780291571413</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.008694824647887105</v>
+        <v>0.007651719866344897</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02789305767196679</v>
+        <v>0.027218605678031</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -1000,19 +1000,19 @@
         <v>35222</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22987</v>
+        <v>22885</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>54274</v>
+        <v>55138</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03269957859123387</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02134095631748604</v>
+        <v>0.02124648121124538</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0503872630409179</v>
+        <v>0.05118948391185164</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>504233</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>488724</v>
+        <v>488048</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>515039</v>
+        <v>517083</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9502234445260148</v>
+        <v>0.9502234445260147</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9209956464754908</v>
+        <v>0.9197217489802086</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9705870540854686</v>
+        <v>0.9744379788720413</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>705</v>
@@ -1050,19 +1050,19 @@
         <v>537686</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>531251</v>
+        <v>531619</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>541742</v>
+        <v>542312</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9838821970842858</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.972106942328033</v>
+        <v>0.9727813943219691</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9913051753521128</v>
+        <v>0.9923482801336549</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1072</v>
@@ -1071,19 +1071,19 @@
         <v>1041919</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1022867</v>
+        <v>1022003</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1054154</v>
+        <v>1054256</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9673004214087663</v>
+        <v>0.9673004214087662</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9496127369590821</v>
+        <v>0.9488105160881485</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.978659043682514</v>
+        <v>0.9787535187887547</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>8214</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3505</v>
+        <v>3525</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15208</v>
+        <v>16277</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02599312746644854</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01109306947618628</v>
+        <v>0.01115406784167855</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04812701251213056</v>
+        <v>0.05151102335471275</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -1196,19 +1196,19 @@
         <v>9929</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5454</v>
+        <v>5163</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17248</v>
+        <v>16241</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0278603165748041</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01530472424980634</v>
+        <v>0.01448723032858593</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04839730350454959</v>
+        <v>0.04557096487772069</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -1217,19 +1217,19 @@
         <v>18143</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11339</v>
+        <v>11050</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28184</v>
+        <v>27282</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02698280076774816</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01686413217153675</v>
+        <v>0.01643391396821337</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0419178039341409</v>
+        <v>0.04057630711795901</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>307779</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>300785</v>
+        <v>299716</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>312488</v>
+        <v>312468</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9740068725335514</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9518729874878695</v>
+        <v>0.9484889766452872</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9889069305238136</v>
+        <v>0.9888459321583216</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>523</v>
@@ -1267,19 +1267,19 @@
         <v>346452</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>339133</v>
+        <v>340140</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>350927</v>
+        <v>351218</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.972139683425196</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9516026964954503</v>
+        <v>0.9544290351222801</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9846952757501936</v>
+        <v>0.9855127696714143</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>875</v>
@@ -1288,19 +1288,19 @@
         <v>654232</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>644191</v>
+        <v>645093</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>661036</v>
+        <v>661325</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9730171992322521</v>
+        <v>0.9730171992322519</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9580821960658594</v>
+        <v>0.9594236928820412</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9831358678284632</v>
+        <v>0.9835660860317865</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>18796</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9811</v>
+        <v>9543</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>36310</v>
+        <v>35122</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.05037168790789243</v>
+        <v>0.05037168790789244</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02629241255414109</v>
+        <v>0.02557331124369368</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09730870569554129</v>
+        <v>0.09412362041476245</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -1413,19 +1413,19 @@
         <v>19518</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11594</v>
+        <v>12148</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>34239</v>
+        <v>34881</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0462546534337302</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0274776128946187</v>
+        <v>0.02878910768851769</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0811417679051825</v>
+        <v>0.08266298722219914</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>31</v>
@@ -1434,19 +1434,19 @@
         <v>38314</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>25227</v>
+        <v>25370</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>59882</v>
+        <v>59530</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04818678642723187</v>
+        <v>0.04818678642723185</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03172735075331427</v>
+        <v>0.03190796094128019</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07531277070279525</v>
+        <v>0.07487064957300844</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>354349</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>336835</v>
+        <v>338023</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>363334</v>
+        <v>363602</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9496283120921076</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9026912943044592</v>
+        <v>0.9058763795852376</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9737075874458589</v>
+        <v>0.9744266887563062</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>581</v>
@@ -1484,19 +1484,19 @@
         <v>402443</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>387722</v>
+        <v>387080</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>410367</v>
+        <v>409813</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9537453465662699</v>
+        <v>0.95374534656627</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9188582320948173</v>
+        <v>0.9173370127777999</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9725223871053813</v>
+        <v>0.9712108923114823</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>860</v>
@@ -1505,19 +1505,19 @@
         <v>756793</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>735225</v>
+        <v>735577</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>769880</v>
+        <v>769737</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9518132135727682</v>
+        <v>0.951813213572768</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9246872292972048</v>
+        <v>0.9251293504269914</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9682726492466859</v>
+        <v>0.9680920390587199</v>
       </c>
     </row>
     <row r="15">
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2908</v>
+        <v>3083</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00262262867944392</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01414017434267323</v>
+        <v>0.01499190506061873</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6642</v>
+        <v>6745</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006976357851871804</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0290150636450616</v>
+        <v>0.02946364001397576</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -1651,19 +1651,19 @@
         <v>2136</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>527</v>
+        <v>391</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6849</v>
+        <v>6878</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004915969132966374</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001213095934392241</v>
+        <v>0.0009003727512832533</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01575968979593798</v>
+        <v>0.01582619776958674</v>
       </c>
     </row>
     <row r="17">
@@ -1680,16 +1680,16 @@
         <v>205126</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>202757</v>
+        <v>202582</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>205665</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9973773713205559</v>
+        <v>0.9973773713205561</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9858598256573265</v>
+        <v>0.9850080949393809</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         <v>227321</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>222276</v>
+        <v>222173</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>228918</v>
@@ -1710,7 +1710,7 @@
         <v>0.9930236421481282</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9709849363549383</v>
+        <v>0.9705363599860242</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1722,19 +1722,19 @@
         <v>432446</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>427733</v>
+        <v>427704</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>434055</v>
+        <v>434191</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9950840308670337</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9842403102040621</v>
+        <v>0.9841738022304132</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9987869040656079</v>
+        <v>0.9990996272487168</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>6928</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3189</v>
+        <v>3263</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13633</v>
+        <v>14650</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02559274082152267</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01178085682317603</v>
+        <v>0.01205200515018566</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05036052918997905</v>
+        <v>0.05411766997646353</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>14</v>
@@ -1847,19 +1847,19 @@
         <v>10299</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5799</v>
+        <v>5894</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17396</v>
+        <v>17815</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.03904801868062107</v>
+        <v>0.03904801868062106</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02198634608313434</v>
+        <v>0.0223467104876608</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06595518493952196</v>
+        <v>0.06754583055538647</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -1868,19 +1868,19 @@
         <v>17227</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10186</v>
+        <v>11232</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>25519</v>
+        <v>25905</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03223281039201563</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0190580164740774</v>
+        <v>0.02101599891302228</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04774742231652949</v>
+        <v>0.0484703580201029</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>263779</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>257074</v>
+        <v>256057</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>267518</v>
+        <v>267444</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9744072591784774</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.949639470810021</v>
+        <v>0.9458823300235368</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.988219143176824</v>
+        <v>0.9879479948498143</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>446</v>
@@ -1918,19 +1918,19 @@
         <v>253451</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>246354</v>
+        <v>245935</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>257951</v>
+        <v>257856</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9609519813193791</v>
+        <v>0.9609519813193788</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9340448150604785</v>
+        <v>0.9324541694446135</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9780136539168659</v>
+        <v>0.9776532895123392</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>809</v>
@@ -1939,19 +1939,19 @@
         <v>517230</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>508938</v>
+        <v>508552</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>524271</v>
+        <v>523225</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9677671896079844</v>
+        <v>0.9677671896079842</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9522525776834705</v>
+        <v>0.9515296419798972</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9809419835259224</v>
+        <v>0.9789840010869777</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>11663</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6199</v>
+        <v>6307</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20824</v>
+        <v>19940</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01620570460149909</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008614127308325758</v>
+        <v>0.008763334252383624</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02893458385855531</v>
+        <v>0.02770654199451264</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>22</v>
@@ -2064,19 +2064,19 @@
         <v>20701</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12989</v>
+        <v>12983</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>33316</v>
+        <v>31434</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.026812351895159</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01682399342297296</v>
+        <v>0.01681570679748309</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04315257665117982</v>
+        <v>0.04071426700006137</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>33</v>
@@ -2085,19 +2085,19 @@
         <v>32364</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>22365</v>
+        <v>22205</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>45950</v>
+        <v>45228</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.02169520873935696</v>
+        <v>0.02169520873935697</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01499264037855595</v>
+        <v>0.01488500193356581</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03080258406769096</v>
+        <v>0.03031871246788991</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>708024</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>698863</v>
+        <v>699747</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>713488</v>
+        <v>713380</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9837942953985009</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9710654161414449</v>
+        <v>0.9722934580054877</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9913858726916743</v>
+        <v>0.9912366657476167</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>938</v>
@@ -2135,19 +2135,19 @@
         <v>751356</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>738741</v>
+        <v>740623</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>759068</v>
+        <v>759074</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9731876481048408</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9568474233488202</v>
+        <v>0.9592857329999388</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9831760065770272</v>
+        <v>0.9831842932025171</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1526</v>
@@ -2156,19 +2156,19 @@
         <v>1459380</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1445794</v>
+        <v>1446516</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1469379</v>
+        <v>1469539</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9783047912606428</v>
+        <v>0.9783047912606431</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9691974159323089</v>
+        <v>0.9696812875321101</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9850073596214439</v>
+        <v>0.9851149980664341</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>11972</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6343</v>
+        <v>6270</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>21167</v>
+        <v>21136</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01500121284717524</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.00794790767793844</v>
+        <v>0.007856645833272009</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02652243853017028</v>
+        <v>0.02648388639323301</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -2281,19 +2281,19 @@
         <v>9984</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5541</v>
+        <v>5523</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16871</v>
+        <v>16684</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01200962813948686</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.006664892776523261</v>
+        <v>0.006643673257147159</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02029378272551087</v>
+        <v>0.02006909736374586</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>24</v>
@@ -2302,19 +2302,19 @@
         <v>21956</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>14421</v>
+        <v>14083</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>32148</v>
+        <v>33164</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.01347488822148168</v>
+        <v>0.01347488822148169</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.008850184024205223</v>
+        <v>0.008642893274686581</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01972972529719792</v>
+        <v>0.02035360437583079</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>786100</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>776905</v>
+        <v>776936</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>791729</v>
+        <v>791802</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9849987871528246</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9734775614698299</v>
+        <v>0.973516113606767</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9920520923220618</v>
+        <v>0.9921433541667279</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1049</v>
@@ -2352,19 +2352,19 @@
         <v>821347</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>814460</v>
+        <v>814647</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>825790</v>
+        <v>825808</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9879903718605131</v>
+        <v>0.9879903718605132</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9797062172744916</v>
+        <v>0.9799309026362546</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.993335107223477</v>
+        <v>0.9933563267428529</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1800</v>
@@ -2373,19 +2373,19 @@
         <v>1607447</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1597255</v>
+        <v>1596239</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1614982</v>
+        <v>1615320</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9865251117785183</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9802702747028021</v>
+        <v>0.9796463956241692</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9911498159757951</v>
+        <v>0.9913571067253134</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>85362</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>65329</v>
+        <v>65013</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>110343</v>
+        <v>111213</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02416285196322061</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01849238473059382</v>
+        <v>0.01840291412788386</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03123429551518168</v>
+        <v>0.03148034233396814</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>96</v>
@@ -2498,19 +2498,19 @@
         <v>84279</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>67565</v>
+        <v>67385</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>106421</v>
+        <v>106219</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02255296621645562</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01808032305205098</v>
+        <v>0.01803210890332891</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02847806343617626</v>
+        <v>0.02842404184830219</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>164</v>
@@ -2519,19 +2519,19 @@
         <v>169641</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>140593</v>
+        <v>142072</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>202459</v>
+        <v>201443</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.02333529980206941</v>
+        <v>0.0233352998020694</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01933955115180768</v>
+        <v>0.01954293183083654</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02784963182532533</v>
+        <v>0.02770982670861228</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>3447400</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3422419</v>
+        <v>3421549</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3467433</v>
+        <v>3467749</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9758371480367795</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.968765704484818</v>
+        <v>0.9685196576660319</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9815076152694062</v>
+        <v>0.9815970858721162</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5271</v>
@@ -2569,19 +2569,19 @@
         <v>3652675</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3630533</v>
+        <v>3630735</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3669389</v>
+        <v>3669569</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9774470337835445</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9715219365638238</v>
+        <v>0.9715759581516983</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.981919676947949</v>
+        <v>0.9819678910966712</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8579</v>
@@ -2590,19 +2590,19 @@
         <v>7100075</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7067257</v>
+        <v>7068273</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7129123</v>
+        <v>7127644</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9766647001979306</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9721503681746748</v>
+        <v>0.9722901732913873</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9806604488481924</v>
+        <v>0.9804570681691633</v>
       </c>
     </row>
     <row r="30">
